--- a/report/comparisons/1067x783/release/performance.xlsx
+++ b/report/comparisons/1067x783/release/performance.xlsx
@@ -118,13 +118,13 @@
     <t>Transform (Final)</t>
   </si>
   <si>
-    <t>GPU</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
-    <t>CPU (16x16)</t>
+    <t>GPU (16x16)</t>
+  </si>
+  <si>
+    <t>CPU</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -838,13 +838,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -915,12 +915,12 @@
         <v>2423356.2000000002</v>
       </c>
       <c r="C33" s="1">
-        <f ca="1">SUM(C33:C34)</f>
+        <f>C21+C22</f>
         <v>346176</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8796113400049318</v>
+        <f t="shared" si="1"/>
+        <v>7.0003587770382705</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
